--- a/biology/Neurosciences/Cinq_Nouvelles_du_cerveau/Cinq_Nouvelles_du_cerveau.xlsx
+++ b/biology/Neurosciences/Cinq_Nouvelles_du_cerveau/Cinq_Nouvelles_du_cerveau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cinq Nouvelles du cerveau est un film documentaire suisse et français réalisé par Jean-Stéphane Bron, sorti en 2021.
 </t>
@@ -511,9 +523,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le film aborde la recherche actuelle dans le domaine des neurosciences et de l'intelligence artificielle, ses applications et les questions existentielles qu'elle suscite concernant la conscience et l'intelligence humaine, et l'avenir de l'espèce humaine. Il est divisé en cinq chapitres, centrés chacun sur une personnalité différente[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le film aborde la recherche actuelle dans le domaine des neurosciences et de l'intelligence artificielle, ses applications et les questions existentielles qu'elle suscite concernant la conscience et l'intelligence humaine, et l'avenir de l'espèce humaine. Il est divisé en cinq chapitres, centrés chacun sur une personnalité différente.
 Chapitre 1 : il est centré sur Alexandre Pouget, neuroscientifique travaillant sur les réseaux de neurones biologiques et artificiels, et sur son fils, étudiant en intelligence artificielle.
 Chapitre 2 : il présente Christof Koch, qui cherche à élucider le mystère de la conscience et de ses relations avec le cerveau.
 Chapitre 3 : Niels Birbaumer travaille dans le domaine de la neurotechnologie, avec des patients atteints de locked-in syndrom, et cherche à développer des interfaces homme-machine pour communiquer avec eux.
@@ -546,7 +560,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Cinq Nouvelles du cerveau
 Réalisation : Jean-Stéphane Bron
@@ -589,7 +605,9 @@
           <t>Personnalités présentes dans le film</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Christof Koch
 Alexandre Pouget (neuroscientifique) (en)
@@ -626,8 +644,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Genèse du film
-Selon Jean-Stéphane Bron, il souhaitait à l'origine faire un documentaire "de science-fiction"[1]. Son intérêt pour l'intelligence artificielle trouve son origine dans sa fascination pour la science. Il estime d'ailleurs que la démarche scientifique a des points communs avec celle du documentariste. Il n'a pas eu de problèmes pour trouver des scientifiques et les convaincre d'apparaître dans le film[2],[3].
+          <t>Genèse du film</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Jean-Stéphane Bron, il souhaitait à l'origine faire un documentaire "de science-fiction". Son intérêt pour l'intelligence artificielle trouve son origine dans sa fascination pour la science. Il estime d'ailleurs que la démarche scientifique a des points communs avec celle du documentariste. Il n'a pas eu de problèmes pour trouver des scientifiques et les convaincre d'apparaître dans le film,.
 </t>
         </is>
       </c>
@@ -656,9 +679,11 @@
           <t>Accueil critique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sur le site Allociné, le film obtient une note moyenne de 3.7/5, sur la base de 15 critiques presse[4]. 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur le site Allociné, le film obtient une note moyenne de 3.7/5, sur la base de 15 critiques presse. 
 </t>
         </is>
       </c>
@@ -687,9 +712,11 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Nomination au prix du cinéma suisse 2021, catégorie documentaire[5]</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Nomination au prix du cinéma suisse 2021, catégorie documentaire</t>
         </is>
       </c>
     </row>
